--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H2">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I2">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J2">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.1890754490804</v>
       </c>
       <c r="Q2">
-        <v>2.624094866291555</v>
+        <v>16.04703713422266</v>
       </c>
       <c r="R2">
-        <v>23.616853796624</v>
+        <v>144.423334208004</v>
       </c>
       <c r="S2">
-        <v>0.01655490605944358</v>
+        <v>0.06992139188014831</v>
       </c>
       <c r="T2">
-        <v>0.01655490605944358</v>
+        <v>0.06992139188014831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H3">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I3">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J3">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>0.8109245509195999</v>
       </c>
       <c r="Q3">
-        <v>11.25446461382222</v>
+        <v>68.82404058776666</v>
       </c>
       <c r="R3">
-        <v>101.2901815244</v>
+        <v>619.4163652899</v>
       </c>
       <c r="S3">
-        <v>0.07100223655193789</v>
+        <v>0.2998854350782044</v>
       </c>
       <c r="T3">
-        <v>0.07100223655193791</v>
+        <v>0.2998854350782044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>34.355763</v>
       </c>
       <c r="I4">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J4">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,16 +688,16 @@
         <v>0.1890754490804</v>
       </c>
       <c r="Q4">
-        <v>16.80577804825399</v>
+        <v>16.805778048254</v>
       </c>
       <c r="R4">
         <v>151.252002434286</v>
       </c>
       <c r="S4">
-        <v>0.1060243973716886</v>
+        <v>0.07322743650020749</v>
       </c>
       <c r="T4">
-        <v>0.1060243973716886</v>
+        <v>0.07322743650020749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.355763</v>
       </c>
       <c r="I5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -750,16 +750,16 @@
         <v>0.8109245509195999</v>
       </c>
       <c r="Q5">
-        <v>72.07819990864999</v>
+        <v>72.07819990865001</v>
       </c>
       <c r="R5">
-        <v>648.7037991778499</v>
+        <v>648.7037991778501</v>
       </c>
       <c r="S5">
-        <v>0.4547273971492604</v>
+        <v>0.3140647098697277</v>
       </c>
       <c r="T5">
-        <v>0.4547273971492604</v>
+        <v>0.3140647098697276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.547171</v>
       </c>
       <c r="I6">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J6">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>94.86189436526197</v>
       </c>
       <c r="S6">
-        <v>0.06649614564926778</v>
+        <v>0.04592662070004419</v>
       </c>
       <c r="T6">
-        <v>0.06649614564926778</v>
+        <v>0.04592662070004419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.547171</v>
       </c>
       <c r="I7">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J7">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,10 +880,10 @@
         <v>406.8526054634499</v>
       </c>
       <c r="S7">
-        <v>0.2851949172184017</v>
+        <v>0.196974405971668</v>
       </c>
       <c r="T7">
-        <v>0.2851949172184016</v>
+        <v>0.1969744059716679</v>
       </c>
     </row>
   </sheetData>
